--- a/Phân tích/Yêu cầu/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu/Yêu cầu nghiệp vụ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\Yêu cầu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9D7E12-5F6D-4F7C-9BCB-3711F75330D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B06903-31E7-407B-B0E0-B639EA3BBB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -297,15 +297,6 @@
     <t>- Danh mục nhân viên</t>
   </si>
   <si>
-    <t>- Danh mục  khách hàng</t>
-  </si>
-  <si>
-    <t>- Danh mục  kho</t>
-  </si>
-  <si>
-    <t>- Danh mục  hóa đơn</t>
-  </si>
-  <si>
     <t>- Báo cáo doanh thu</t>
   </si>
   <si>
@@ -369,12 +360,6 @@
     <t>Xuất danh sách khách hàng</t>
   </si>
   <si>
-    <t>- Danh mục  đơn đặt hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Xuất danh sách đơn đặt hàng</t>
-  </si>
-  <si>
     <t>Xuất danh sách hàng hoá trong kho</t>
   </si>
   <si>
@@ -456,9 +441,6 @@
     <t>QĐ33</t>
   </si>
   <si>
-    <t>Danh mục tài khoản</t>
-  </si>
-  <si>
     <t>BM35</t>
   </si>
   <si>
@@ -469,6 +451,39 @@
   </si>
   <si>
     <t xml:space="preserve">Xuất danh mục tài khoản và lưu </t>
+  </si>
+  <si>
+    <t>- Danh mục tài khoản</t>
+  </si>
+  <si>
+    <t>- Xem thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>BM36</t>
+  </si>
+  <si>
+    <t>QĐ36</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Xuất danh sách đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Xuất thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>- Danh mục đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>- Danh mục khách hàng</t>
+  </si>
+  <si>
+    <t>- Danh mục kho</t>
+  </si>
+  <si>
+    <t>- Danh mục hóa đơn</t>
   </si>
 </sst>
 </file>
@@ -521,24 +536,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,6 +549,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,38 +884,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="11" width="44" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="6" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="I1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="I1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -911,23 +936,23 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -939,22 +964,22 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="4"/>
+      <c r="K3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -966,22 +991,22 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="4"/>
+      <c r="K4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -993,22 +1018,22 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="4"/>
+      <c r="K5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1020,20 +1045,20 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="4"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1045,21 +1070,21 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="4"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>114</v>
+      <c r="B8" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -1070,21 +1095,21 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="4"/>
+      <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
+      <c r="B9" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
@@ -1095,21 +1120,21 @@
       <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="4"/>
+      <c r="J9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>91</v>
+      <c r="B10" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1120,21 +1145,21 @@
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M10" s="4"/>
+      <c r="J10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
+      <c r="B11" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
@@ -1145,21 +1170,21 @@
       <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="4"/>
+      <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>90</v>
+      <c r="B12" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1170,21 +1195,21 @@
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="4"/>
+      <c r="J12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1195,23 +1220,23 @@
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" s="4"/>
+      <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>94</v>
+      <c r="B14" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -1222,23 +1247,23 @@
       <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="4"/>
+      <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>95</v>
+      <c r="B15" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
@@ -1249,23 +1274,23 @@
       <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="4"/>
+      <c r="J15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>96</v>
+      <c r="B16" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
@@ -1276,23 +1301,23 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="4"/>
+      <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>97</v>
+      <c r="B17" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
@@ -1303,23 +1328,23 @@
       <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="4"/>
+      <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>98</v>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>38</v>
@@ -1330,23 +1355,23 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M18" s="4"/>
+      <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>99</v>
+      <c r="B19" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>39</v>
@@ -1357,23 +1382,23 @@
       <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M19" s="4"/>
+      <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>100</v>
+      <c r="B20" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
@@ -1384,22 +1409,22 @@
       <c r="I20" s="1">
         <v>18</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="4"/>
+      <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1411,22 +1436,22 @@
       <c r="I21" s="1">
         <v>19</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21" s="4"/>
+      <c r="K21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1438,20 +1463,20 @@
       <c r="I22" s="1">
         <v>20</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="4"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1463,22 +1488,22 @@
       <c r="I23" s="1">
         <v>21</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="4"/>
+      <c r="K23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1490,22 +1515,22 @@
       <c r="I24" s="1">
         <v>22</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="4"/>
+      <c r="K24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1517,20 +1542,20 @@
       <c r="I25" s="1">
         <v>23</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M25" s="4"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1542,22 +1567,22 @@
       <c r="I26" s="1">
         <v>24</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M26" s="4"/>
+      <c r="K26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1569,20 +1594,20 @@
       <c r="I27" s="1">
         <v>25</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M27" s="4"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1594,22 +1619,22 @@
       <c r="I28" s="1">
         <v>26</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M28" s="4"/>
+      <c r="K28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1621,20 +1646,20 @@
       <c r="I29" s="1">
         <v>27</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M29" s="4"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1646,22 +1671,22 @@
       <c r="I30" s="1">
         <v>28</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" s="4"/>
+      <c r="K30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1673,22 +1698,22 @@
       <c r="I31" s="1">
         <v>29</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M31" s="4"/>
+      <c r="K31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1700,22 +1725,22 @@
       <c r="I32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M32" s="4"/>
+      <c r="K32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1727,22 +1752,22 @@
       <c r="I33" s="1">
         <v>31</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M33" s="4"/>
+      <c r="K33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1754,50 +1779,50 @@
       <c r="I34" s="1">
         <v>32</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M34" s="4"/>
+      <c r="K34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>101</v>
+      <c r="B35" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I35" s="1">
         <v>33</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M35" s="4"/>
+      <c r="J35" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>140</v>
+      <c r="B36" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>55</v>
@@ -1808,43 +1833,66 @@
       <c r="I36" s="1">
         <v>34</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M36" s="4"/>
+      <c r="J36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>143</v>
+      <c r="B37" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I37" s="1">
         <v>35</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="C38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I38" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M37" s="4"/>
+      <c r="J38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1854,5 +1902,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I38" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Phân tích/Yêu cầu/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu/Yêu cầu nghiệp vụ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\Yêu cầu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B06903-31E7-407B-B0E0-B639EA3BBB88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0391A7-24B2-461B-A25B-77712C7C89D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
@@ -524,7 +524,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -532,44 +532,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,1012 +907,1014 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="6"/>
-    <col min="10" max="10" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>3</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <v>6</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <v>7</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="9"/>
+      <c r="L9" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>8</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>9</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>11</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>12</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <v>13</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>14</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>15</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <v>16</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <v>17</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>18</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="3">
         <v>19</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>20</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="9"/>
+      <c r="L22" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="M22" s="8"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>21</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>22</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>23</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8" t="s">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>24</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M26" s="8"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>25</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="3">
         <v>26</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>27</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="8"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>28</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M30" s="8"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>29</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="8"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <v>30</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>31</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="K33" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="M33" s="8"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>32</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M34" s="8"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>33</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M35" s="8"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <v>34</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="8"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <v>35</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="K38" s="7"/>
+      <c r="L38" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="M38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Phân tích/Yêu cầu/Yêu cầu nghiệp vụ.xlsx
+++ b/Phân tích/Yêu cầu/Yêu cầu nghiệp vụ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\Yêu cầu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\Yêu cầu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0391A7-24B2-461B-A25B-77712C7C89D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F29CB0-F97D-43B3-A68D-447E49D2C0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA4F4A45-B080-403D-880F-8A1956738ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>BM35</t>
   </si>
   <si>
-    <t>QD35</t>
-  </si>
-  <si>
     <t>Cung cấp tài khoản cho nhân viên</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>- Danh mục hóa đơn</t>
+  </si>
+  <si>
+    <t>QĐ35</t>
   </si>
 </sst>
 </file>
@@ -577,6 +577,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,7 +590,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,40 +906,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8C8E8B-6B0E-4DFD-82F0-66B3E2D3D432}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="35.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" s="15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -968,7 +968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1116,20 +1116,20 @@
         <v>6</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9" t="s">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
@@ -1174,12 +1174,12 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
@@ -1191,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
@@ -1199,12 +1199,12 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -1864,55 +1864,55 @@
       </c>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I37" s="3">
         <v>35</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="I38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="J38" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M38" s="7"/>
     </row>
